--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H2">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I2">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J2">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N2">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q2">
-        <v>89.97401636035111</v>
+        <v>72.51495765247999</v>
       </c>
       <c r="R2">
-        <v>809.76614724316</v>
+        <v>652.6346188723199</v>
       </c>
       <c r="S2">
-        <v>0.0086239916650367</v>
+        <v>0.005611268426124564</v>
       </c>
       <c r="T2">
-        <v>0.0086239916650367</v>
+        <v>0.005611268426124565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H3">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I3">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J3">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>213.429389</v>
       </c>
       <c r="O3">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P3">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q3">
-        <v>108.4388719618482</v>
+        <v>90.89625676238222</v>
       </c>
       <c r="R3">
-        <v>975.949847656634</v>
+        <v>818.06631086144</v>
       </c>
       <c r="S3">
-        <v>0.01039384442081064</v>
+        <v>0.007033628814457749</v>
       </c>
       <c r="T3">
-        <v>0.01039384442081064</v>
+        <v>0.00703362881445775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H4">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I4">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J4">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N4">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O4">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P4">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q4">
-        <v>104.2620073375227</v>
+        <v>159.4355924954311</v>
       </c>
       <c r="R4">
-        <v>938.358066037704</v>
+        <v>1434.92033245888</v>
       </c>
       <c r="S4">
-        <v>0.009993492773042657</v>
+        <v>0.01233726027197754</v>
       </c>
       <c r="T4">
-        <v>0.009993492773042659</v>
+        <v>0.01233726027197754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H5">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I5">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J5">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N5">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O5">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P5">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q5">
-        <v>31.19382311424422</v>
+        <v>27.46351997589333</v>
       </c>
       <c r="R5">
-        <v>280.7444080281981</v>
+        <v>247.17167978304</v>
       </c>
       <c r="S5">
-        <v>0.002989921773197827</v>
+        <v>0.002125150279332765</v>
       </c>
       <c r="T5">
-        <v>0.002989921773197828</v>
+        <v>0.002125150279332766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H6">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I6">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J6">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N6">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O6">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P6">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q6">
-        <v>113.322588020046</v>
+        <v>110.51987144384</v>
       </c>
       <c r="R6">
-        <v>1019.903292180414</v>
+        <v>994.67884299456</v>
       </c>
       <c r="S6">
-        <v>0.01086194763865103</v>
+        <v>0.008552120626811894</v>
       </c>
       <c r="T6">
-        <v>0.01086194763865103</v>
+        <v>0.008552120626811897</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H7">
         <v>100.372597</v>
       </c>
       <c r="I7">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J7">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N7">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O7">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P7">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q7">
-        <v>1974.963114752824</v>
+        <v>1898.927883652436</v>
       </c>
       <c r="R7">
-        <v>17774.66803277542</v>
+        <v>17090.35095287193</v>
       </c>
       <c r="S7">
-        <v>0.1892998237643285</v>
+        <v>0.1469406371040202</v>
       </c>
       <c r="T7">
-        <v>0.1892998237643285</v>
+        <v>0.1469406371040202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H8">
         <v>100.372597</v>
       </c>
       <c r="I8">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J8">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>213.429389</v>
       </c>
       <c r="O8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q8">
         <v>2380.273561117026</v>
       </c>
       <c r="R8">
-        <v>21422.46205005323</v>
+        <v>21422.46205005324</v>
       </c>
       <c r="S8">
-        <v>0.2281487498498099</v>
+        <v>0.1841875705567383</v>
       </c>
       <c r="T8">
-        <v>0.22814874984981</v>
+        <v>0.1841875705567383</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H9">
         <v>100.372597</v>
       </c>
       <c r="I9">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J9">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N9">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O9">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P9">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q9">
-        <v>2288.589829501439</v>
+        <v>4175.093002014145</v>
       </c>
       <c r="R9">
-        <v>20597.30846551295</v>
+        <v>37575.8370181273</v>
       </c>
       <c r="S9">
-        <v>0.2193608823158592</v>
+        <v>0.3230722087794582</v>
       </c>
       <c r="T9">
-        <v>0.2193608823158592</v>
+        <v>0.3230722087794582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H10">
         <v>100.372597</v>
       </c>
       <c r="I10">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J10">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N10">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O10">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P10">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q10">
-        <v>684.7160163665279</v>
+        <v>719.1791259866505</v>
       </c>
       <c r="R10">
-        <v>6162.444147298752</v>
+        <v>6472.612133879854</v>
       </c>
       <c r="S10">
-        <v>0.06562989468439714</v>
+        <v>0.05565068577598126</v>
       </c>
       <c r="T10">
-        <v>0.06562989468439714</v>
+        <v>0.05565068577598126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H11">
         <v>100.372597</v>
       </c>
       <c r="I11">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J11">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N11">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O11">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P11">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q11">
-        <v>2487.472944539427</v>
+        <v>2894.151391333163</v>
       </c>
       <c r="R11">
-        <v>22387.25650085484</v>
+        <v>26047.36252199847</v>
       </c>
       <c r="S11">
-        <v>0.2384237895393714</v>
+        <v>0.2239518693569403</v>
       </c>
       <c r="T11">
-        <v>0.2384237895393715</v>
+        <v>0.2239518693569403</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H12">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I12">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J12">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N12">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O12">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P12">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q12">
-        <v>4.291247496791112</v>
+        <v>8.98387026362</v>
       </c>
       <c r="R12">
-        <v>38.62122747112</v>
+        <v>80.85483237257999</v>
       </c>
       <c r="S12">
-        <v>0.0004113152234609406</v>
+        <v>0.000695179438650975</v>
       </c>
       <c r="T12">
-        <v>0.0004113152234609406</v>
+        <v>0.0006951794386509751</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H13">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I13">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J13">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>213.429389</v>
       </c>
       <c r="O13">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P13">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q13">
-        <v>5.171915811754222</v>
+        <v>11.26112742305389</v>
       </c>
       <c r="R13">
-        <v>46.547242305788</v>
+        <v>101.350146807485</v>
       </c>
       <c r="S13">
-        <v>0.0004957271071928601</v>
+        <v>0.0008713955133832545</v>
       </c>
       <c r="T13">
-        <v>0.0004957271071928601</v>
+        <v>0.0008713955133832546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H14">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I14">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J14">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N14">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q14">
-        <v>4.972703188058667</v>
+        <v>19.75245831689945</v>
       </c>
       <c r="R14">
-        <v>44.754328692528</v>
+        <v>177.772124852095</v>
       </c>
       <c r="S14">
-        <v>0.0004766326166297198</v>
+        <v>0.001528461841253917</v>
       </c>
       <c r="T14">
-        <v>0.0004766326166297198</v>
+        <v>0.001528461841253917</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H15">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I15">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J15">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N15">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O15">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P15">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q15">
-        <v>1.487767477426222</v>
+        <v>3.402452520598334</v>
       </c>
       <c r="R15">
-        <v>13.389907296836</v>
+        <v>30.622072685385</v>
       </c>
       <c r="S15">
-        <v>0.0001426022183276731</v>
+        <v>0.0002632846383461747</v>
       </c>
       <c r="T15">
-        <v>0.0001426022183276731</v>
+        <v>0.0002632846383461747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H16">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I16">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J16">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N16">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O16">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P16">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q16">
-        <v>5.404841217972001</v>
+        <v>13.692294924335</v>
       </c>
       <c r="R16">
-        <v>48.643570961748</v>
+        <v>123.230654319015</v>
       </c>
       <c r="S16">
-        <v>0.0005180529612900282</v>
+        <v>0.001059521299844254</v>
       </c>
       <c r="T16">
-        <v>0.0005180529612900282</v>
+        <v>0.001059521299844254</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H17">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I17">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J17">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N17">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O17">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P17">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q17">
-        <v>26.02466526928223</v>
+        <v>36.896139271544</v>
       </c>
       <c r="R17">
-        <v>234.22198742354</v>
+        <v>332.065253443896</v>
       </c>
       <c r="S17">
-        <v>0.002494459016576284</v>
+        <v>0.002855054295590958</v>
       </c>
       <c r="T17">
-        <v>0.002494459016576285</v>
+        <v>0.002855054295590958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H18">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I18">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J18">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>213.429389</v>
       </c>
       <c r="O18">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P18">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q18">
-        <v>31.36555929306345</v>
+        <v>46.24867830495356</v>
       </c>
       <c r="R18">
-        <v>282.290033637571</v>
+        <v>416.238104744582</v>
       </c>
       <c r="S18">
-        <v>0.003006382651956318</v>
+        <v>0.003578761633789669</v>
       </c>
       <c r="T18">
-        <v>0.003006382651956319</v>
+        <v>0.00357876163378967</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H19">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I19">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J19">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N19">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O19">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P19">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q19">
-        <v>30.15741600769734</v>
+        <v>81.12199215152378</v>
       </c>
       <c r="R19">
-        <v>271.416744069276</v>
+        <v>730.097929363714</v>
       </c>
       <c r="S19">
-        <v>0.002890582357108541</v>
+        <v>0.006277287996300753</v>
       </c>
       <c r="T19">
-        <v>0.002890582357108542</v>
+        <v>0.006277287996300753</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H20">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I20">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J20">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N20">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q20">
-        <v>9.022702751937446</v>
+        <v>13.97363924245133</v>
       </c>
       <c r="R20">
-        <v>81.20432476743701</v>
+        <v>125.762753182062</v>
       </c>
       <c r="S20">
-        <v>0.0008648242734565925</v>
+        <v>0.001081291959860101</v>
       </c>
       <c r="T20">
-        <v>0.0008648242734565926</v>
+        <v>0.001081291959860101</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H21">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I21">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J21">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N21">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O21">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P21">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q21">
-        <v>32.77815684984901</v>
+        <v>56.233316560802</v>
       </c>
       <c r="R21">
-        <v>295.0034116486411</v>
+        <v>506.099849047218</v>
       </c>
       <c r="S21">
-        <v>0.00314177984826441</v>
+        <v>0.004351381341572147</v>
       </c>
       <c r="T21">
-        <v>0.00314177984826441</v>
+        <v>0.004351381341572147</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H22">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I22">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J22">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N22">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O22">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P22">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q22">
-        <v>3.844083498973333</v>
+        <v>16.219493165736</v>
       </c>
       <c r="R22">
-        <v>34.59675149076</v>
+        <v>145.975438491624</v>
       </c>
       <c r="S22">
-        <v>0.0003684546427501702</v>
+        <v>0.001255078025761282</v>
       </c>
       <c r="T22">
-        <v>0.0003684546427501702</v>
+        <v>0.001255078025761282</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H23">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I23">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J23">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>213.429389</v>
       </c>
       <c r="O23">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P23">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q23">
-        <v>4.632982890152666</v>
+        <v>20.330856737362</v>
       </c>
       <c r="R23">
-        <v>41.69684601137399</v>
+        <v>182.977710636258</v>
       </c>
       <c r="S23">
-        <v>0.0004440704932956748</v>
+        <v>0.001573218797605126</v>
       </c>
       <c r="T23">
-        <v>0.0004440704932956748</v>
+        <v>0.001573218797605127</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H24">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I24">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J24">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N24">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O24">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P24">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q24">
-        <v>4.454528965016</v>
+        <v>35.661118568774</v>
       </c>
       <c r="R24">
-        <v>40.090760685144</v>
+        <v>320.950067118966</v>
       </c>
       <c r="S24">
-        <v>0.0004269657198818931</v>
+        <v>0.002759487354653408</v>
       </c>
       <c r="T24">
-        <v>0.0004269657198818931</v>
+        <v>0.002759487354653409</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H25">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I25">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J25">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N25">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O25">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P25">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q25">
-        <v>1.332736556108667</v>
+        <v>6.142793004042</v>
       </c>
       <c r="R25">
-        <v>11.994629004978</v>
+        <v>55.285137036378</v>
       </c>
       <c r="S25">
-        <v>0.0001277425351952578</v>
+        <v>0.0004753344902576924</v>
       </c>
       <c r="T25">
-        <v>0.0001277425351952578</v>
+        <v>0.0004753344902576926</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H26">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I26">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J26">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N26">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O26">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P26">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q26">
-        <v>4.841636600106001</v>
+        <v>24.720090276438</v>
       </c>
       <c r="R26">
-        <v>43.574729400954</v>
+        <v>222.480812487942</v>
       </c>
       <c r="S26">
-        <v>0.0004640699101085214</v>
+        <v>0.001912861381287471</v>
       </c>
       <c r="T26">
-        <v>0.0004640699101085214</v>
+        <v>0.001912861381287472</v>
       </c>
     </row>
   </sheetData>
